--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.574</v>
+        <v>-13.376</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,10 +558,10 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.634</v>
+        <v>5.312</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.504</v>
+        <v>-10.623</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.398</v>
+        <v>-12.818</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.363999999999999</v>
+        <v>5.275</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.62</v>
+        <v>6.601999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.744</v>
+        <v>-13.075</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.564</v>
+        <v>-12.849</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.772</v>
+        <v>-12.807</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.42</v>
+        <v>5.715</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.146</v>
+        <v>-12.148</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -922,10 +922,10 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.938000000000001</v>
+        <v>8.313000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.546</v>
+        <v>-12.373</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.42</v>
+        <v>-11.861</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-12.736</v>
+        <v>-13.285</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.534</v>
+        <v>-11.743</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.128</v>
+        <v>-11.574</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.856</v>
+        <v>-10.886</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.922</v>
+        <v>5.827</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>4.942</v>
+        <v>6.11</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.974</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.652</v>
+        <v>-11.81</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.854</v>
+        <v>-12.21</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.659999999999999</v>
+        <v>5.486</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.996</v>
+        <v>5.598</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.434</v>
+        <v>4.973000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.072</v>
+        <v>-12.048</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-13.358</v>
+        <v>-12.907</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
